--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T19:25:22+00:00</t>
+    <t>2023-05-09T05:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:16:34+00:00</t>
+    <t>2023-06-23T17:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
